--- a/GUI + Reviews/202506/Review 202506/Coen/EZN1P_df_20250725_161912.xlsx
+++ b/GUI + Reviews/202506/Review 202506/Coen/EZN1P_df_20250725_161912.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202506/Review 202506/Coen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_207213E1ECECE1712FDD3ABED834CC55FD1ECAFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4F3B6C7-4C86-4370-A913-823BACD20416}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_207213E1ECECE1712FDD3ABED834CC55FD1ECAFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69386F7D-4409-422D-9CC8-290DA28B19F9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index Composition" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="1246">
   <si>
     <t>Company</t>
   </si>
@@ -3772,6 +3772,9 @@
   </si>
   <si>
     <t>Index Market Cap</t>
+  </si>
+  <si>
+    <t>ES0105046017</t>
   </si>
 </sst>
 </file>
@@ -3850,6 +3853,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4142,7 +4149,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4282,7 +4289,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>1245</v>
       </c>
       <c r="C6" t="s">
         <v>210</v>
